--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>type</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>session_id</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,8 +793,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="extras" sheetId="11" r:id="rId3"/>
     <sheet name="conditionals" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>type</t>
   </si>
@@ -85,12 +85,6 @@
     <t>relation</t>
   </si>
   <si>
-    <t>product-bridge</t>
-  </si>
-  <si>
-    <t>node_id</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -98,6 +92,30 @@
   </si>
   <si>
     <t>session_id</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>agency_id</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>sale_items</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -723,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,44 +771,44 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -798,32 +816,71 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -843,55 +900,55 @@
     <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -908,23 +965,18 @@
     <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
+    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
@@ -943,20 +995,26 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="create-fields" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>type</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>sale_deliveries</t>
+  </si>
+  <si>
+    <t>sale-payment</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -183,6 +189,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,8 +890,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1252,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
